--- a/src/main/resources/case-template.xlsx
+++ b/src/main/resources/case-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuekaiming/Documents/idea-frame/jitest/src/main/resources/"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -90,26 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行时间</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行结果(pass;fail)</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Json</t>
   </si>
   <si>
@@ -155,12 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8080/pay/receipt/singleQuery</t>
-  </si>
-  <si>
-    <t>{"orderNo":"2020020100000010","signInfo":"aba"}</t>
-  </si>
-  <si>
     <t>预期结果(key;key;key……)</t>
     <rPh sb="0" eb="1">
       <t>yu'qi</t>
@@ -171,20 +145,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>param1=1&amp;param2=2</t>
+  </si>
+  <si>
+    <t>param1=1&amp;param2=3</t>
+  </si>
+  <si>
+    <t>Success;1;成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/itest/post/kv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>处理成功;0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>http://localhost:8080/itest/post/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"param1":1,"param2":2}</t>
+  </si>
+  <si>
+    <t>2020-02-21 17:27:47</t>
+  </si>
+  <si>
+    <t>2020-02-21 17:27:48</t>
+  </si>
+  <si>
+    <t>2020-02-21 17:27:49</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/itest/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get接口自动化示例-失败用例</t>
+    <rPh sb="3" eb="4">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'dong'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8081/itest/get</t>
+  </si>
+  <si>
+    <t>param1=1&amp;param2=4</t>
+  </si>
+  <si>
+    <t>Success;2;成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post接口自动化示例-Json-失败用例</t>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'dong'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理失败</t>
+    <rPh sb="2" eb="3">
+      <t>shi'bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-21 17:30:43</t>
+  </si>
+  <si>
+    <t>2020-02-21 17:30:44</t>
+  </si>
+  <si>
+    <t>2020-02-21 17:30:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -202,22 +301,124 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF008000"/>
-      <name val="Menlo"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -225,16 +426,1034 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="68" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="76" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="84" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="92" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -509,23 +1728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="35.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -548,13 +1767,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -562,21 +1781,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -585,13 +1810,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,14 +1839,93 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +1937,11 @@
       <formula1>"Json,Key:Value,Xml暂不支持"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://localhost:8080/itest/get"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/resources/case-template.xlsx
+++ b/src/main/resources/case-template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -202,15 +202,6 @@
     <t>{"param1":1,"param2":2}</t>
   </si>
   <si>
-    <t>2020-02-21 17:27:47</t>
-  </si>
-  <si>
-    <t>2020-02-21 17:27:48</t>
-  </si>
-  <si>
-    <t>2020-02-21 17:27:49</t>
-  </si>
-  <si>
     <t>http://localhost:8080/itest/get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,13 +261,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-02-21 17:30:43</t>
+    <t>2020-02-24 15:06:31</t>
   </si>
   <si>
-    <t>2020-02-21 17:30:44</t>
+    <t>2020-02-24 15:06:35</t>
   </si>
   <si>
-    <t>2020-02-21 17:30:45</t>
+    <t>2020-02-24 15:06:36</t>
+  </si>
+  <si>
+    <t>2020-02-24 15:06:38</t>
+  </si>
+  <si>
+    <t>2020-02-24 15:06:39</t>
+  </si>
+  <si>
+    <t>test_table.order_no=111111000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM test_table where order_no=222888000 and state=1;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM test_table where order_no=222888000 and state=1;
+SELECT * FROM test_table where order_no=111111000 and state=2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库预期结果(sql语句;分隔)</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu'ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fen'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-24 18:26:12</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:26:13</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:30:17</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:30:18</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:30:19</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:33:43</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:33:45</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:33:46</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:36:17</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:36:19</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:36:20</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:36:21</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:52:16</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:52:18</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:52:19</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:52:20</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:54:28</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:55:43</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:57:33</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:57:35</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:57:36</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:57:37</t>
+  </si>
+  <si>
+    <t>2020-02-24 18:57:38</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:36:46</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:36:49</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:36:50</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:36:51</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:37:41</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:37:44</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:37:45</t>
+  </si>
+  <si>
+    <t>2020-02-25 10:37:46</t>
   </si>
 </sst>
 </file>
@@ -310,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="171">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +440,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="22"/>
       </patternFill>
@@ -417,8 +545,748 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="687">
     <border>
       <left/>
       <right/>
@@ -607,6 +1475,5068 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -1291,7 +7221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,6 +7235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,125 +7260,1022 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="68" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="76" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="84" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="92" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="62" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="70" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="78" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="86" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="94" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="102" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="110" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="118" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="126" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="134" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="142" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="150" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="158" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="166" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="174" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="182" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="190" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="198" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="206" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="206" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="214" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="214" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="222" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="222" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="230" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="230" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="238" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="238" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="246" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="246" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="254" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="254" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="254" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="262" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="262" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="270" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="270" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="278" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="278" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="286" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="294" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="294" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="302" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="302" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="310" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="310" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="318" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="318" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="326" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="326" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="334" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="334" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="342" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="342" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="350" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="350" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="358" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="358" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="366" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="366" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="374" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="374" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="382" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="382" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="390" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="390" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="398" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="398" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="406" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="406" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="414" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="414" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="422" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="422" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="422" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="430" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="430" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="438" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="438" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="438" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="446" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="446" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="454" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="454" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="454" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="462" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="462" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="462" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="470" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="470" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="470" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="478" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="478" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="478" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="478" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="486" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="486" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="494" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="494" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="494" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="502" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="502" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="510" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="510" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="510" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="518" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="518" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="526" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="526" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="526" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="534" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="534" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="534" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="542" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="542" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="542" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="550" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="550" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="550" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="558" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="558" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="566" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="566" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="566" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="574" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="574" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="582" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="582" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="582" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="590" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="590" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="590" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="598" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="598" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="598" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="606" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="606" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="606" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="614" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="614" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="622" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="622" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="622" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="622" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="630" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="630" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="630" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="638" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="638" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="638" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="638" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="646" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="646" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="646" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="646" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="654" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="654" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="654" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="662" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="662" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="662" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="662" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="670" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="670" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="670" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="678" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="678" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="678" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="686" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="686" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="686" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="686" xfId="0" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1728,10 +8556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,13 +8569,14 @@
     <col min="4" max="4" customWidth="true" width="11.83203125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.83203125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="41.6640625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="12.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +8604,11 @@
       <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1798,14 +8630,17 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>35</v>
+      <c r="H2" s="315" t="s">
+        <v>68</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="319" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1827,22 +8662,25 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>36</v>
+      <c r="H3" s="323" t="s">
+        <v>69</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="327" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1856,22 +8694,25 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>36</v>
+      <c r="H4" s="331" t="s">
+        <v>70</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>16</v>
+      <c r="I4" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1880,24 +8721,24 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>36</v>
+      <c r="H5" s="339" t="s">
+        <v>71</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="343" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1912,19 +8753,19 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>37</v>
+      <c r="H6" s="347" t="s">
+        <v>71</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="351" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
